--- a/meta/2-2-1.xlsx
+++ b/meta/2-2-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ЦУР_метаданные\Метаданные для заполнения на 1 ноября\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA726A64-33F8-48E8-87EC-6B3AADC40A1F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12590" activeTab="1"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -226,7 +227,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -375,7 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -438,7 +439,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -459,8 +459,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -737,50 +737,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.453125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.7890625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.47265625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -788,7 +788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -796,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -804,7 +804,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -820,13 +820,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +842,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -850,13 +850,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -864,7 +864,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -872,13 +872,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -886,7 +886,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -902,13 +902,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -916,7 +916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -924,25 +924,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -955,56 +955,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.81640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.1796875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.7890625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" ht="92.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -1012,7 +1012,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -1028,7 +1028,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -1036,7 +1036,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -1044,13 +1044,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="201.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="183.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="186" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -1074,35 +1074,35 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="19"/>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="93" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" s="8" customFormat="1" ht="91.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="25" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="356.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" ht="321.3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="124" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" ht="122.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="62" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -1118,71 +1118,63 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="31" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="21"/>
     </row>
-    <row r="23" spans="1:2" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" ht="76.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="93" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="91.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="22"/>
-    </row>
-    <row r="26" spans="1:2" ht="46.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="B25" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="B26" s="27" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="62" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
-      <c r="B28" s="28" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B29" s="23"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.35">
-      <c r="F65" s="15"/>
-      <c r="K65" s="8"/>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="22"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="15"/>
+      <c r="K63" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/meta/2-2-1.xlsx
+++ b/meta/2-2-1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист" sheetId="2" r:id="rId1"/>
@@ -103,21 +103,6 @@
     <t>2.2.1: Распространенность задержки роста среди детей в возрасте до пяти лет (среднеквадратичное отклонение от медианного показателя роста к возрасту ребенка в соответствии с нормами роста детей, установленными Всемирной организацией здравоохранения (ВОЗ), &lt;-2)</t>
   </si>
   <si>
-    <t>Национальный статистический комитет КР (Отдел статистики домашних хозяйств) в рамках глобальной программы MICS ЮНИСЕФ</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
-  </si>
-  <si>
     <t>Распространенность задержки роста среди детей в возрасте до пяти лет - это доля детей, у которых среднеквадратичное отклонение от медианного показателя роста к возрасту ребенка в соответствии с нормами роста детей, установленными Всемирной организацией здравоохранения составило &lt;-2 (ВОЗ, SD&lt;-2).</t>
   </si>
   <si>
@@ -155,18 +140,41 @@
 http://datatopics.worldbank.org/child-malnutrition;
 United Nations Children’s Fund, World Health Organization, The World Bank (2012). UNICEFWHO-World
 Национальная платформа отчетности ЦУР КР:  https://sustainabledevelopment-kyrgyzstan.github.io</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t>Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР (Управление статистики домашних хозяйств) в рамках глобальной программы MICS ЮНИСЕФ</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>yryskan.kalymbetova@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,25 +241,29 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -563,7 +575,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,7 +595,7 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
     </row>
@@ -591,7 +603,7 @@
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -599,7 +611,7 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -613,40 +625,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="6" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="6" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -659,24 +671,24 @@
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>34</v>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>35</v>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>36</v>
+      <c r="B14" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -689,16 +701,16 @@
       <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>37</v>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
-        <v>38</v>
+      <c r="B17" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -711,24 +723,24 @@
       <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="6" t="s">
-        <v>39</v>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>40</v>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="6" t="s">
-        <v>41</v>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -741,32 +753,32 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>43</v>
+      <c r="B24" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="6" t="s">
-        <v>44</v>
+      <c r="B25" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>45</v>
+      <c r="B26" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
